--- a/federal_agg_state/federal_agg_state_2015_2016.xlsx
+++ b/federal_agg_state/federal_agg_state_2015_2016.xlsx
@@ -412,13 +412,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.202</v>
+        <v>0.152</v>
       </c>
       <c r="B2">
-        <v>7.427</v>
+        <v>4.716</v>
       </c>
       <c r="C2">
-        <v>0.753</v>
+        <v>0.787</v>
       </c>
     </row>
   </sheetData>
@@ -447,13 +447,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.08</v>
+        <v>0.024</v>
       </c>
       <c r="B2">
-        <v>1.837</v>
+        <v>1.036</v>
       </c>
       <c r="C2">
-        <v>0.742</v>
+        <v>0.781</v>
       </c>
     </row>
   </sheetData>
@@ -485,16 +485,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>-0.011</v>
+        <v>-0.078</v>
       </c>
       <c r="B2">
-        <v>0.524</v>
+        <v>0.244</v>
       </c>
       <c r="C2">
-        <v>11269.1</v>
+        <v>19341.44</v>
       </c>
       <c r="D2">
-        <v>0.136</v>
+        <v>0.148</v>
       </c>
     </row>
   </sheetData>
